--- a/excels/materiales/04Acero.xlsx
+++ b/excels/materiales/04Acero.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emanuelziga/GITHUB/COTOCO/excels/materiales/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\COTOCO\excels\materiales\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="22720" windowHeight="13460"/>
+    <workbookView xWindow="360" yWindow="456" windowWidth="22716" windowHeight="13464"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,6 @@
     <t>Varilla lisa c/cobre1.80 5/8''</t>
   </si>
   <si>
-    <t>Hierro Techo metal lock blanco #240,53x512mm metro lineal</t>
-  </si>
-  <si>
     <t>MC tubo estructural Galv cuad 50x50x1,50 (2"x2"x1,50)</t>
   </si>
   <si>
@@ -168,12 +165,15 @@
   </si>
   <si>
     <t>Clavos corrientes de 2.1/2"</t>
+  </si>
+  <si>
+    <t>Hierro Techo metal lock blanco #240,53x512mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -708,6 +708,7 @@
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
@@ -724,7 +725,6 @@
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
@@ -734,6 +734,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1029,24 +1032,24 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1078,7 +1081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="3">
         <v>4001</v>
       </c>
@@ -1107,7 +1110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>4002</v>
       </c>
@@ -1115,13 +1118,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="3">
         <v>8672.57</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>14</v>
@@ -1136,7 +1139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>4003</v>
       </c>
@@ -1144,13 +1147,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3">
         <v>8672.57</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>14</v>
@@ -1165,7 +1168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>4004</v>
       </c>
@@ -1173,7 +1176,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
@@ -1194,7 +1197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>4005</v>
       </c>
@@ -1202,7 +1205,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="3">
         <v>558</v>
@@ -1223,7 +1226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>4006</v>
       </c>
@@ -1231,13 +1234,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="3">
         <v>30.97</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>14</v>
@@ -1252,7 +1255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>4007</v>
       </c>
@@ -1260,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="3">
         <v>716.81</v>
@@ -1281,7 +1284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>4008</v>
       </c>
@@ -1310,7 +1313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>4009</v>
       </c>
@@ -1339,7 +1342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>4010</v>
       </c>
@@ -1368,7 +1371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>4011</v>
       </c>
@@ -1397,7 +1400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>4012</v>
       </c>
@@ -1426,7 +1429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>4013</v>
       </c>
@@ -1455,7 +1458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>4014</v>
       </c>
@@ -1484,7 +1487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>4015</v>
       </c>
@@ -1513,7 +1516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>4016</v>
       </c>
@@ -1542,7 +1545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>4017</v>
       </c>
@@ -1571,7 +1574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>4018</v>
       </c>
@@ -1600,7 +1603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>4019</v>
       </c>
@@ -1629,7 +1632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>4020</v>
       </c>
@@ -1658,7 +1661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>4021</v>
       </c>
@@ -1687,7 +1690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>4022</v>
       </c>
@@ -1716,7 +1719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>4023</v>
       </c>
@@ -1745,7 +1748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>4024</v>
       </c>
@@ -1774,7 +1777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>4025</v>
       </c>
@@ -1803,7 +1806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>4026</v>
       </c>
@@ -1832,7 +1835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>4027</v>
       </c>
@@ -1861,7 +1864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>4028</v>
       </c>
@@ -1890,7 +1893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>4029</v>
       </c>
@@ -1919,15 +1922,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>4030</v>
       </c>
       <c r="C31" s="2">
         <v>30</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>32</v>
+      <c r="D31" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="E31" s="3">
         <v>3060</v>
@@ -1948,7 +1951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>4031</v>
       </c>
@@ -1956,7 +1959,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E32" s="3">
         <v>9051.9599999999991</v>
@@ -1977,7 +1980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>4032</v>
       </c>
@@ -1985,7 +1988,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E33" s="3">
         <v>3336.28</v>
@@ -2006,7 +2009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>4033</v>
       </c>
@@ -2014,7 +2017,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E34" s="3">
         <v>2123.89</v>
@@ -2035,7 +2038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>4034</v>
       </c>
@@ -2043,7 +2046,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E35" s="3">
         <v>3393.81</v>
@@ -2064,7 +2067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
         <v>4035</v>
       </c>
@@ -2072,7 +2075,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E36" s="3">
         <v>199.12</v>
@@ -2093,7 +2096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
         <v>4036</v>
       </c>
@@ -2101,7 +2104,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E37" s="3">
         <v>11.5</v>
@@ -2122,7 +2125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
         <v>4037</v>
       </c>
@@ -2130,7 +2133,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E38" s="3">
         <v>6000</v>
